--- a/spreads_CDS.xlsx
+++ b/spreads_CDS.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://centralecasablanca-my.sharepoint.com/personal/abdoul_bagagnan_centrale-casablanca_ma/Documents/Documents/Mobilité/3A_Marseille/En cours/Projet DDEFI/Presentation William/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mayou\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="271" documentId="8_{09E2B33D-2304-4BD5-8681-4E3B4D23B9F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CADF0F35-E9F9-4DB2-9E88-1C65169DBF29}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A35A8B3-7320-4E24-86CD-AF4BFD779C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="2" xr2:uid="{65E519D5-E774-4E0E-A006-A8D7B0ECD7D5}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{65E519D5-E774-4E0E-A006-A8D7B0ECD7D5}"/>
   </bookViews>
   <sheets>
     <sheet name="Importing sheet" sheetId="1" r:id="rId1"/>
@@ -261,10 +261,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -585,13 +586,13 @@
       <selection activeCell="U17" sqref="U17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -640,7 +641,7 @@
         <v>IBE30YEUAM=R</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45257</v>
       </c>
@@ -678,7 +679,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="e" cm="1">
         <f t="array" aca="1" ref="C3" ca="1">_xll.RHistory(C1,".Close","START:"&amp;$A$2&amp;" END:"&amp;$A$2&amp;" RTFEED:IDN_RDF INTERVAL:1D",,,C4)</f>
         <v>#NAME?</v>
@@ -724,7 +725,7 @@
         <v>#NAME?</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>12.32</v>
       </c>
@@ -770,12 +771,12 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.90625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>51</v>
       </c>
@@ -813,7 +814,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>45257</v>
       </c>
@@ -851,7 +852,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>22</v>
       </c>
@@ -886,7 +887,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C4">
         <v>49.5</v>
       </c>
@@ -918,7 +919,7 @@
         <v>218.56</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>52</v>
       </c>
@@ -956,7 +957,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>45257</v>
       </c>
@@ -994,7 +995,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C8" t="s">
         <v>35</v>
       </c>
@@ -1029,7 +1030,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C9">
         <v>12.29</v>
       </c>
@@ -1061,7 +1062,7 @@
         <v>106.04</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>53</v>
       </c>
@@ -1099,7 +1100,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>45257</v>
       </c>
@@ -1137,7 +1138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C13" t="s">
         <v>49</v>
       </c>
@@ -1172,7 +1173,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="C14">
         <v>12.32</v>
       </c>
@@ -1214,17 +1215,17 @@
   <dimension ref="A1:D12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>54</v>
       </c>
@@ -1238,7 +1239,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="2">
         <v>0.5</v>
       </c>
@@ -1252,7 +1253,7 @@
         <v>12.29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -1280,7 +1281,7 @@
         <v>20.170000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -1294,7 +1295,7 @@
         <v>26.29</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -1308,7 +1309,7 @@
         <v>35.659999999999997</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -1322,7 +1323,7 @@
         <v>44.93</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -1336,7 +1337,7 @@
         <v>61.03</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="2">
         <v>10</v>
       </c>
@@ -1350,12 +1351,21 @@
         <v>76.959999999999994</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="3">
+        <v>185.02050000000003</v>
+      </c>
+      <c r="C10" s="3">
+        <v>91.644000000000005</v>
+      </c>
+      <c r="D10" s="3">
+        <v>80.807999999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>20</v>
       </c>
@@ -1369,7 +1379,7 @@
         <v>93.46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>30</v>
       </c>
@@ -1389,15 +1399,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005FF91143987D20429AA3D67E30D4FAE0" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ab2651fe88a2b9000ab01b9a616ff4bf">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cbbb4585-1d7c-49bc-b14d-4d91620c4b07" xmlns:ns3="348657cd-434c-4ac7-9f01-62461165da2f" xmlns:ns4="50c908b1-f277-4340-90a9-4611d0b0f078" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4626251de2cb2a002620cbe8a369c2a7" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="cbbb4585-1d7c-49bc-b14d-4d91620c4b07"/>
@@ -1639,15 +1640,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9B83D8-477A-4698-960E-7D2F4C82D5C9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B630413-0B61-4398-BB04-49E629930D01}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1665,4 +1667,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7E9B83D8-477A-4698-960E-7D2F4C82D5C9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>